--- a/data/数据生成策略.xlsx
+++ b/data/数据生成策略.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+  <si>
+    <t>工序</t>
+  </si>
   <si>
     <t>时长（分钟）</t>
   </si>
@@ -41,6 +44,9 @@
     <t>温度</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>22-26</t>
   </si>
   <si>
@@ -71,12 +77,18 @@
     <t>47-49</t>
   </si>
   <si>
+    <t>这是我根据老师发的和上次的一堆真实数据自己设计的工序和部分参数的取值</t>
+  </si>
+  <si>
     <t>450-500</t>
   </si>
   <si>
     <t>47-50</t>
   </si>
   <si>
+    <t>T1 (48 min) 预测点</t>
+  </si>
+  <si>
     <t>28-32</t>
   </si>
   <si>
@@ -99,6 +111,203 @@
   </si>
   <si>
     <t>1300-1500</t>
+  </si>
+  <si>
+    <t>T2 (111 min) 预测点</t>
+  </si>
+  <si>
+    <t>参数名</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>生成分布</t>
+  </si>
+  <si>
+    <t>取值范围</t>
+  </si>
+  <si>
+    <t>中位径</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>均匀分布 (Uniform)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[20.0, 30.0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <rFont val="KaTeX_Math"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μm</t>
+    </r>
+  </si>
+  <si>
+    <t>粒径分布参数</t>
+  </si>
+  <si>
+    <t>这个参数kd应该用不上</t>
+  </si>
+  <si>
+    <t>几何标准差</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>[1.4, 1.6]</t>
+  </si>
+  <si>
+    <t>粒径分布宽度</t>
+  </si>
+  <si>
+    <t>最终固含量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.60, 0.75]</t>
+  </si>
+  <si>
+    <t>T2 时刻 (111 min) 的固含量</t>
+  </si>
+  <si>
+    <t>固化剂比例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8.5"/>
+        <rFont val="KaTeX_Math"/>
+        <charset val="134"/>
+      </rPr>
+      <t>curing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.10, 0.25]</t>
+  </si>
+  <si>
+    <t>固化剂占液相体积的比例，用于反推 T1 时刻固含量</t>
+  </si>
+  <si>
+    <t>Φmax采用下面的策略进行生成、修正，由于这个参数我作为中间变量让模型输出且不参与loss计算，我这边压根没用到，专门给你生成的，你可以看情况重新生成或修正</t>
+  </si>
+  <si>
+    <t>无效数据判定</t>
+  </si>
+  <si>
+    <t>τ 0,1 (Peak) 必须在 (0, 200) Pa 之间。</t>
+  </si>
+  <si>
+    <t>τ 0,2(Final) 必须在 (0, 200) Pa 之间。</t>
+  </si>
+  <si>
+    <t>Φ 1&lt;Φ m,1 (固含量不能超过最大堆积密度，否则堵塞)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Φ 2&lt;Φ m,2
+​
+</t>
   </si>
 </sst>
 </file>
@@ -111,8 +320,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -263,8 +488,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <name val="KaTeX_Math"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8.5"/>
+      <name val="KaTeX_Math"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +528,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,11 +737,87 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -584,139 +939,187 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -993,6 +1396,53 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="4589145"/>
+          <a:ext cx="4676140" cy="3575685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1243,161 +1693,408 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="11.8653846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.0961538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7692307692308" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1538461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.3076923076923" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5865384615385" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2">
+    <row r="2" spans="1:14">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    <row r="16" ht="20" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+    <row r="18" ht="17" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+    <row r="19" ht="17" spans="1:14">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
+    <row r="21" spans="1:14">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11">
-        <v>15</v>
-      </c>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="H5:N7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>